--- a/generated/spreadsheet/verbose/hedgerow-removal-notice-hedgerow-removal-verbose.xlsx
+++ b/generated/spreadsheet/verbose/hedgerow-removal-notice-hedgerow-removal-verbose.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/hedgerow-removal-notice-hedgerow-removal-verbose.xlsx
+++ b/generated/spreadsheet/verbose/hedgerow-removal-notice-hedgerow-removal-verbose.xlsx
@@ -709,7 +709,7 @@
       <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
+          <t>A reference of the planning authority the application has been submitted to, e.g. local-authority:CMD for London borough of Camden</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/hedgerow-removal-notice-hedgerow-removal-verbose.xlsx
+++ b/generated/spreadsheet/verbose/hedgerow-removal-notice-hedgerow-removal-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,17 +1083,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>A URL pointing to the stored file</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1147,17 +1147,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>base64-content</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Base64</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1211,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>checksum</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Checksum</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1339,22 +1339,22 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -1383,37 +1383,29 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1423,7 +1415,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1457,19 +1449,19 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -1513,75 +1505,67 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>fee</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1591,21 +1575,13 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -1613,23 +1589,31 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H21" s="2" t="inlineStr"/>
       <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1663,21 +1647,29 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
@@ -1687,7 +1679,7 @@
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1721,24 +1713,24 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -1748,72 +1740,64 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -1831,21 +1815,29 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1855,7 +1847,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1889,19 +1881,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1911,7 +1903,7 @@
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1945,19 +1937,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -2001,19 +1993,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2057,19 +2049,19 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2079,53 +2071,45 @@
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n"/>
-      <c r="B30" s="2" t="n"/>
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
@@ -2135,21 +2119,13 @@
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2157,23 +2133,31 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H31" s="2" t="inlineStr"/>
       <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
@@ -2207,21 +2191,29 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2231,7 +2223,7 @@
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2265,24 +2257,24 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -2292,8 +2284,16 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n"/>
-      <c r="B34" s="2" t="n"/>
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2301,63 +2301,47 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
       <c r="C35" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2375,21 +2359,29 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
@@ -2399,7 +2391,7 @@
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2433,19 +2425,19 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2455,7 +2447,7 @@
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2489,19 +2481,19 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2545,19 +2537,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2601,19 +2593,19 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2623,7 +2615,7 @@
       </c>
       <c r="N39" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2647,29 +2639,21 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr"/>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2703,12 +2687,12 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr"/>
@@ -2717,12 +2701,12 @@
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -2732,77 +2716,77 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>checklist</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
       <c r="H42" s="2" t="inlineStr"/>
       <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Declaration</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>declaration</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -2813,7 +2797,7 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
@@ -2828,16 +2812,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -2845,12 +2821,12 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
@@ -2861,12 +2837,12 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
@@ -2885,12 +2861,12 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
@@ -2901,12 +2877,12 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -2916,21 +2892,29 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
-      <c r="B46" s="2" t="n"/>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Hedgerow removal notice</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>hedgerow-removal</t>
+        </is>
+      </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Details of any hedgerows being removed as part of the development</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>removal-reasons</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Removal reasons</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
@@ -2941,7 +2925,7 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Reasons for the proposed removal of hedgerow(s)</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
@@ -2956,16 +2940,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>Hedgerow removal notice</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>hedgerow-removal</t>
-        </is>
-      </c>
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
           <t>Details of any hedgerows being removed as part of the development</t>
@@ -2973,12 +2949,12 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>removal-reasons</t>
+          <t>plan-references</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Removal reasons</t>
+          <t>Plan references[]</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
@@ -2989,7 +2965,7 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>Reasons for the proposed removal of hedgerow(s)</t>
+          <t>References to plans showing the stretches of hedgerows to be removed</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
@@ -3013,12 +2989,12 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>plan-references</t>
+          <t>hedgerow-length</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Plan references[]</t>
+          <t>Hedgerow length</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
@@ -3029,12 +3005,12 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>References to plans showing the stretches of hedgerows to be removed</t>
+          <t>Total length, in metres, of hedgerow proposed for removal</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
@@ -3053,12 +3029,12 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>hedgerow-length</t>
+          <t>hedgerow-less-than-30-years</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Hedgerow length</t>
+          <t>Hedgerow less than 30 years</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
@@ -3069,12 +3045,12 @@
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>Total length, in metres, of hedgerow proposed for removal</t>
+          <t>Is the hedgerow less than 30 years old?</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -3093,12 +3069,12 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>hedgerow-less-than-30-years</t>
+          <t>planting-evidence-attached</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Hedgerow less than 30 years</t>
+          <t>Planting evidence attached</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
@@ -3109,7 +3085,7 @@
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Is the hedgerow less than 30 years old?</t>
+          <t>Is evidence of the date of planting attached?</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
@@ -3119,7 +3095,7 @@
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3133,12 +3109,12 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>planting-evidence-attached</t>
+          <t>interest-declaration</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>Planting evidence attached</t>
+          <t>Interest declaration</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr"/>
@@ -3149,36 +3125,44 @@
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Is evidence of the date of planting attached?</t>
+          <t>The applicant's interest or ownership in the hedgerow</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n"/>
-      <c r="B52" s="2" t="n"/>
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Details of any hedgerows being removed as part of the development</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>interest-declaration</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>Interest declaration</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr"/>
@@ -3189,12 +3173,12 @@
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>The applicant's interest or ownership in the hedgerow</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
@@ -3204,16 +3188,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A53" s="2" t="n"/>
+      <c r="B53" s="2" t="n"/>
       <c r="C53" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -3221,12 +3197,12 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr"/>
@@ -3237,17 +3213,17 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N53" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3261,12 +3237,12 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr"/>
@@ -3277,7 +3253,7 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
@@ -3301,12 +3277,12 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr"/>
@@ -3317,7 +3293,7 @@
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
@@ -3341,12 +3317,12 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr"/>
@@ -3357,7 +3333,7 @@
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
@@ -3372,37 +3348,53 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n"/>
-      <c r="B57" s="2" t="n"/>
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
-        </is>
-      </c>
-      <c r="F57" s="2" t="inlineStr"/>
-      <c r="G57" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H57" s="2" t="inlineStr"/>
       <c r="I57" s="2" t="inlineStr"/>
       <c r="J57" s="2" t="inlineStr"/>
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N57" s="2" t="inlineStr">
@@ -3412,16 +3404,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A58" s="2" t="n"/>
+      <c r="B58" s="2" t="n"/>
       <c r="C58" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -3439,12 +3423,12 @@
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr"/>
@@ -3453,12 +3437,12 @@
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N58" s="2" t="inlineStr">
@@ -3487,12 +3471,12 @@
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr"/>
@@ -3501,7 +3485,7 @@
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
@@ -3535,12 +3519,12 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr"/>
@@ -3549,12 +3533,12 @@
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N60" s="2" t="inlineStr">
@@ -3583,12 +3567,12 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr"/>
@@ -3597,7 +3581,7 @@
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
@@ -3631,12 +3615,12 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr"/>
@@ -3645,7 +3629,7 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
@@ -3679,12 +3663,12 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr"/>
@@ -3693,7 +3677,7 @@
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
@@ -3727,12 +3711,12 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr"/>
@@ -3741,12 +3725,12 @@
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N64" s="2" t="inlineStr">
@@ -3775,12 +3759,12 @@
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr"/>
@@ -3789,7 +3773,7 @@
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
@@ -3804,64 +3788,56 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n"/>
-      <c r="B66" s="2" t="n"/>
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr"/>
+      <c r="G66" s="2" t="inlineStr"/>
       <c r="H66" s="2" t="inlineStr"/>
       <c r="I66" s="2" t="inlineStr"/>
       <c r="J66" s="2" t="inlineStr"/>
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N66" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A67" s="2" t="n"/>
+      <c r="B67" s="2" t="n"/>
       <c r="C67" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -3869,12 +3845,12 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
@@ -3885,12 +3861,12 @@
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N67" s="2" t="inlineStr">
@@ -3909,12 +3885,12 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr"/>
@@ -3925,17 +3901,17 @@
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N68" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3949,23 +3925,31 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="inlineStr"/>
-      <c r="G69" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H69" s="2" t="inlineStr"/>
       <c r="I69" s="2" t="inlineStr"/>
       <c r="J69" s="2" t="inlineStr"/>
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
@@ -3975,7 +3959,7 @@
       </c>
       <c r="N69" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3999,12 +3983,12 @@
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr"/>
@@ -4013,7 +3997,7 @@
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
@@ -4047,12 +4031,12 @@
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr"/>
@@ -4061,7 +4045,7 @@
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
@@ -4070,54 +4054,6 @@
         </is>
       </c>
       <c r="N71" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n"/>
-      <c r="B72" s="2" t="n"/>
-      <c r="C72" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="inlineStr">
-        <is>
-          <t>other-contact</t>
-        </is>
-      </c>
-      <c r="E72" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F72" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G72" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H72" s="2" t="inlineStr"/>
-      <c r="I72" s="2" t="inlineStr"/>
-      <c r="J72" s="2" t="inlineStr"/>
-      <c r="K72" s="2" t="inlineStr"/>
-      <c r="L72" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="M72" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N72" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -4125,28 +4061,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="A43"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B2:B20"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="B43"/>
-    <mergeCell ref="A58:A66"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B58:B66"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A57:A65"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="A42"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/hedgerow-removal-notice-hedgerow-removal-verbose.xlsx
+++ b/generated/spreadsheet/verbose/hedgerow-removal-notice-hedgerow-removal-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,22 +1275,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,37 +1319,29 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1359,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1393,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1449,75 +1441,67 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>fee</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1527,21 +1511,13 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -1549,23 +1525,31 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1599,21 +1583,29 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1623,7 +1615,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1657,24 +1649,24 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -1684,72 +1676,64 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="2" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -1767,21 +1751,29 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1791,7 +1783,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1825,19 +1817,19 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1847,7 +1839,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1881,19 +1873,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1937,19 +1929,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -1993,19 +1985,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2015,53 +2007,45 @@
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n"/>
-      <c r="B29" s="2" t="n"/>
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr"/>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2071,21 +2055,13 @@
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A30" s="2" t="n"/>
+      <c r="B30" s="2" t="n"/>
       <c r="C30" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2093,23 +2069,31 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr"/>
-      <c r="G30" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H30" s="2" t="inlineStr"/>
       <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
@@ -2143,21 +2127,29 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="inlineStr"/>
-      <c r="I31" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
@@ -2167,7 +2159,7 @@
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2201,24 +2193,24 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -2228,8 +2220,16 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n"/>
-      <c r="B33" s="2" t="n"/>
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2237,63 +2237,47 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A34" s="2" t="n"/>
+      <c r="B34" s="2" t="n"/>
       <c r="C34" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2311,21 +2295,29 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
@@ -2335,7 +2327,7 @@
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2369,19 +2361,19 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
@@ -2391,7 +2383,7 @@
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2425,19 +2417,19 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2481,19 +2473,19 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2537,19 +2529,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2559,7 +2551,7 @@
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2583,29 +2575,21 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr"/>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2639,12 +2623,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr"/>
@@ -2653,12 +2637,12 @@
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -2668,77 +2652,77 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n"/>
-      <c r="B41" s="2" t="n"/>
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>checklist</t>
+        </is>
+      </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
       <c r="H41" s="2" t="inlineStr"/>
       <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Declaration</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>declaration</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr"/>
@@ -2749,7 +2733,7 @@
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
@@ -2764,16 +2748,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
       <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -2781,12 +2757,12 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -2797,12 +2773,12 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -2821,12 +2797,12 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
@@ -2837,12 +2813,12 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
@@ -2852,21 +2828,29 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="2" t="n"/>
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Hedgerow removal notice</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>hedgerow-removal</t>
+        </is>
+      </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Details of any hedgerows being removed as part of the development</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>removal-reasons</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Removal reasons</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
@@ -2877,7 +2861,7 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Reasons for the proposed removal of hedgerow(s)</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
@@ -2892,16 +2876,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>Hedgerow removal notice</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>hedgerow-removal</t>
-        </is>
-      </c>
+      <c r="A46" s="2" t="n"/>
+      <c r="B46" s="2" t="n"/>
       <c r="C46" s="2" t="inlineStr">
         <is>
           <t>Details of any hedgerows being removed as part of the development</t>
@@ -2909,12 +2885,12 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>removal-reasons</t>
+          <t>plan-references</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Removal reasons</t>
+          <t>Plan references[]</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
@@ -2925,7 +2901,7 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Reasons for the proposed removal of hedgerow(s)</t>
+          <t>References to plans showing the stretches of hedgerows to be removed</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
@@ -2949,12 +2925,12 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>plan-references</t>
+          <t>hedgerow-length</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Plan references[]</t>
+          <t>Hedgerow length</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
@@ -2965,12 +2941,12 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>References to plans showing the stretches of hedgerows to be removed</t>
+          <t>Total length, in metres, of hedgerow proposed for removal</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -2989,12 +2965,12 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>hedgerow-length</t>
+          <t>hedgerow-less-than-30-years</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Hedgerow length</t>
+          <t>Hedgerow less than 30 years</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
@@ -3005,12 +2981,12 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Total length, in metres, of hedgerow proposed for removal</t>
+          <t>Is the hedgerow less than 30 years old?</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
@@ -3029,12 +3005,12 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>hedgerow-less-than-30-years</t>
+          <t>planting-evidence-attached</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Hedgerow less than 30 years</t>
+          <t>Planting evidence attached</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
@@ -3045,7 +3021,7 @@
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>Is the hedgerow less than 30 years old?</t>
+          <t>Is evidence of the date of planting attached?</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
@@ -3055,7 +3031,7 @@
       </c>
       <c r="N49" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3069,12 +3045,12 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>planting-evidence-attached</t>
+          <t>interest-declaration</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Planting evidence attached</t>
+          <t>Interest declaration</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
@@ -3085,36 +3061,44 @@
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Is evidence of the date of planting attached?</t>
+          <t>The applicant's interest or ownership in the hedgerow</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n"/>
-      <c r="B51" s="2" t="n"/>
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Details of any hedgerows being removed as part of the development</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>interest-declaration</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>Interest declaration</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr"/>
@@ -3125,12 +3109,12 @@
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>The applicant's interest or ownership in the hedgerow</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
@@ -3140,16 +3124,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A52" s="2" t="n"/>
+      <c r="B52" s="2" t="n"/>
       <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -3157,12 +3133,12 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr"/>
@@ -3173,17 +3149,17 @@
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3197,12 +3173,12 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr"/>
@@ -3213,7 +3189,7 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
@@ -3237,12 +3213,12 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr"/>
@@ -3253,7 +3229,7 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
@@ -3277,12 +3253,12 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr"/>
@@ -3293,7 +3269,7 @@
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
@@ -3308,37 +3284,53 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n"/>
-      <c r="B56" s="2" t="n"/>
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="inlineStr"/>
-      <c r="G56" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H56" s="2" t="inlineStr"/>
       <c r="I56" s="2" t="inlineStr"/>
       <c r="J56" s="2" t="inlineStr"/>
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N56" s="2" t="inlineStr">
@@ -3348,16 +3340,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A57" s="2" t="n"/>
+      <c r="B57" s="2" t="n"/>
       <c r="C57" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -3375,12 +3359,12 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr"/>
@@ -3389,12 +3373,12 @@
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N57" s="2" t="inlineStr">
@@ -3423,12 +3407,12 @@
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr"/>
@@ -3437,7 +3421,7 @@
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
@@ -3471,12 +3455,12 @@
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr"/>
@@ -3485,12 +3469,12 @@
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N59" s="2" t="inlineStr">
@@ -3519,12 +3503,12 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr"/>
@@ -3533,7 +3517,7 @@
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
@@ -3567,12 +3551,12 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr"/>
@@ -3581,7 +3565,7 @@
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
@@ -3615,12 +3599,12 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr"/>
@@ -3629,7 +3613,7 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
@@ -3663,12 +3647,12 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr"/>
@@ -3677,12 +3661,12 @@
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
@@ -3711,12 +3695,12 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr"/>
@@ -3725,7 +3709,7 @@
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
@@ -3740,64 +3724,56 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n"/>
-      <c r="B65" s="2" t="n"/>
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr"/>
       <c r="H65" s="2" t="inlineStr"/>
       <c r="I65" s="2" t="inlineStr"/>
       <c r="J65" s="2" t="inlineStr"/>
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N65" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A66" s="2" t="n"/>
+      <c r="B66" s="2" t="n"/>
       <c r="C66" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -3805,12 +3781,12 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
@@ -3821,12 +3797,12 @@
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N66" s="2" t="inlineStr">
@@ -3845,12 +3821,12 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
@@ -3861,17 +3837,17 @@
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N67" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3885,23 +3861,31 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="inlineStr"/>
-      <c r="G68" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H68" s="2" t="inlineStr"/>
       <c r="I68" s="2" t="inlineStr"/>
       <c r="J68" s="2" t="inlineStr"/>
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
@@ -3911,7 +3895,7 @@
       </c>
       <c r="N68" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3935,12 +3919,12 @@
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr"/>
@@ -3949,7 +3933,7 @@
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
@@ -3983,12 +3967,12 @@
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr"/>
@@ -3997,7 +3981,7 @@
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
@@ -4006,54 +3990,6 @@
         </is>
       </c>
       <c r="N70" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n"/>
-      <c r="B71" s="2" t="n"/>
-      <c r="C71" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="inlineStr">
-        <is>
-          <t>other-contact</t>
-        </is>
-      </c>
-      <c r="E71" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H71" s="2" t="inlineStr"/>
-      <c r="I71" s="2" t="inlineStr"/>
-      <c r="J71" s="2" t="inlineStr"/>
-      <c r="K71" s="2" t="inlineStr"/>
-      <c r="L71" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="M71" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N71" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -4061,28 +3997,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="B66:B71"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A57:A65"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B42"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="A42"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="B41"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="A41"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="B56:B64"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="A42:A44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/hedgerow-removal-notice-hedgerow-removal-verbose.xlsx
+++ b/generated/spreadsheet/verbose/hedgerow-removal-notice-hedgerow-removal-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1073,37 +1073,29 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>uploaded-date</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>base64-content</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>Base64</t>
-        </is>
-      </c>
+          <t>Uploaded date</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr"/>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>The date the document was uploaded to the application</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1147,17 +1139,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1159,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1203,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1223,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1275,22 +1267,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>file-size</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>File size</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,29 +1311,37 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>fee</t>
+          <t>documents</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
+          <t>Documents[]</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>file</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>file-size</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>File size</t>
+        </is>
+      </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1385,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1441,67 +1441,75 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>transactions</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Transactions[]</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>The details of the application payload to be submitted</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>application</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>fee</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>Fee</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>transactions</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>Transactions[]</t>
+        </is>
+      </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1511,13 +1519,21 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -1525,31 +1541,23 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1583,29 +1591,21 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1649,24 +1649,24 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>contact-priority</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -1676,64 +1676,72 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr"/>
-      <c r="I23" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>contact-priority</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -1751,29 +1759,21 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1817,19 +1817,19 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1873,19 +1873,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1929,19 +1929,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -1985,19 +1985,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2007,45 +2007,53 @@
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="2" t="n"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr"/>
-      <c r="G29" s="2" t="inlineStr"/>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
+          <t>Applicants[]</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2055,13 +2063,21 @@
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n"/>
-      <c r="B30" s="2" t="n"/>
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2069,31 +2085,23 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
       <c r="H30" s="2" t="inlineStr"/>
       <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
@@ -2127,29 +2135,21 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2193,24 +2193,24 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>contact-priority</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -2220,16 +2220,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="2" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2237,47 +2229,63 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>contact-priority</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n"/>
-      <c r="B34" s="2" t="n"/>
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2295,29 +2303,21 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2361,19 +2361,19 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2417,19 +2417,19 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2473,19 +2473,19 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2529,19 +2529,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2575,21 +2575,29 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2623,12 +2631,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>user-role</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>User role</t>
+          <t>Company</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr"/>
@@ -2637,12 +2645,12 @@
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -2652,77 +2660,77 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Checklist</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>checklist</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>user-role</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>User role</t>
+        </is>
+      </c>
       <c r="H41" s="2" t="inlineStr"/>
       <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Declaration</t>
+          <t>Checklist</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>declaration</t>
+          <t>checklist</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>National requirement types[]</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr"/>
@@ -2733,7 +2741,7 @@
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
@@ -2748,8 +2756,16 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n"/>
-      <c r="B43" s="2" t="n"/>
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -2757,12 +2773,12 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -2773,12 +2789,12 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -2797,12 +2813,12 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
@@ -2813,12 +2829,12 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
@@ -2828,29 +2844,21 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>Hedgerow removal notice</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>hedgerow-removal</t>
-        </is>
-      </c>
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="2" t="n"/>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Details of any hedgerows being removed as part of the development</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>removal-reasons</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Removal reasons</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
@@ -2861,7 +2869,7 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>Reasons for the proposed removal of hedgerow(s)</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
@@ -2876,8 +2884,16 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
-      <c r="B46" s="2" t="n"/>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Hedgerow removal notice</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>hedgerow-removal</t>
+        </is>
+      </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
           <t>Details of any hedgerows being removed as part of the development</t>
@@ -2885,12 +2901,12 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>plan-references</t>
+          <t>removal-reasons</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Plan references[]</t>
+          <t>Removal reasons</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
@@ -2901,7 +2917,7 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>References to plans showing the stretches of hedgerows to be removed</t>
+          <t>Reasons for the proposed removal of hedgerow(s)</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
@@ -2925,12 +2941,12 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>hedgerow-length</t>
+          <t>plan-references</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Hedgerow length</t>
+          <t>Plan references[]</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
@@ -2941,12 +2957,12 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>Total length, in metres, of hedgerow proposed for removal</t>
+          <t>References to plans showing the stretches of hedgerows to be removed</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -2965,12 +2981,12 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>hedgerow-less-than-30-years</t>
+          <t>hedgerow-length</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Hedgerow less than 30 years</t>
+          <t>Hedgerow length</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
@@ -2981,12 +2997,12 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Is the hedgerow less than 30 years old?</t>
+          <t>Total length, in metres, of hedgerow proposed for removal</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
@@ -3005,12 +3021,12 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>planting-evidence-attached</t>
+          <t>hedgerow-less-than-30-years</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Planting evidence attached</t>
+          <t>Hedgerow less than 30 years</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
@@ -3021,7 +3037,7 @@
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>Is evidence of the date of planting attached?</t>
+          <t>Is the hedgerow less than 30 years old?</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
@@ -3031,7 +3047,7 @@
       </c>
       <c r="N49" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3045,12 +3061,12 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>interest-declaration</t>
+          <t>planting-evidence-attached</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Interest declaration</t>
+          <t>Planting evidence attached</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
@@ -3061,44 +3077,36 @@
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>The applicant's interest or ownership in the hedgerow</t>
+          <t>Is evidence of the date of planting attached?</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A51" s="2" t="n"/>
+      <c r="B51" s="2" t="n"/>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Details of any hedgerows being removed as part of the development</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>interest-declaration</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Interest declaration</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr"/>
@@ -3109,12 +3117,12 @@
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>The applicant's interest or ownership in the hedgerow</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
@@ -3124,8 +3132,16 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n"/>
-      <c r="B52" s="2" t="n"/>
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -3133,12 +3149,12 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr"/>
@@ -3149,17 +3165,17 @@
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3173,12 +3189,12 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr"/>
@@ -3189,7 +3205,7 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
@@ -3213,12 +3229,12 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr"/>
@@ -3229,7 +3245,7 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
@@ -3253,12 +3269,12 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr"/>
@@ -3269,7 +3285,7 @@
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
@@ -3284,53 +3300,37 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A56" s="2" t="n"/>
+      <c r="B56" s="2" t="n"/>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>site-boundary</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="inlineStr">
-        <is>
-          <t>Site boundary</t>
-        </is>
-      </c>
+          <t>Advice summary</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr"/>
       <c r="H56" s="2" t="inlineStr"/>
       <c r="I56" s="2" t="inlineStr"/>
       <c r="J56" s="2" t="inlineStr"/>
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N56" s="2" t="inlineStr">
@@ -3340,8 +3340,16 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n"/>
-      <c r="B57" s="2" t="n"/>
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -3359,12 +3367,12 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>site-boundary</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr"/>
@@ -3373,12 +3381,12 @@
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N57" s="2" t="inlineStr">
@@ -3407,12 +3415,12 @@
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr"/>
@@ -3421,7 +3429,7 @@
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
@@ -3455,12 +3463,12 @@
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr"/>
@@ -3469,12 +3477,12 @@
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N59" s="2" t="inlineStr">
@@ -3503,12 +3511,12 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr"/>
@@ -3517,7 +3525,7 @@
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
@@ -3551,12 +3559,12 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr"/>
@@ -3565,7 +3573,7 @@
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
@@ -3599,12 +3607,12 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr"/>
@@ -3613,7 +3621,7 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
@@ -3647,12 +3655,12 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr"/>
@@ -3661,12 +3669,12 @@
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
@@ -3695,12 +3703,12 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>uprns</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr"/>
@@ -3709,7 +3717,7 @@
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
@@ -3724,56 +3732,64 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A65" s="2" t="n"/>
+      <c r="B65" s="2" t="n"/>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
-        </is>
-      </c>
-      <c r="F65" s="2" t="inlineStr"/>
-      <c r="G65" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>uprns</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="inlineStr">
+        <is>
+          <t>UPRNs[]</t>
+        </is>
+      </c>
       <c r="H65" s="2" t="inlineStr"/>
       <c r="I65" s="2" t="inlineStr"/>
       <c r="J65" s="2" t="inlineStr"/>
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N65" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n"/>
-      <c r="B66" s="2" t="n"/>
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -3781,12 +3797,12 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Site seen from public area</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
@@ -3797,12 +3813,12 @@
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N66" s="2" t="inlineStr">
@@ -3821,12 +3837,12 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
@@ -3837,17 +3853,17 @@
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N67" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3861,31 +3877,23 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>fullname</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="inlineStr">
-        <is>
-          <t>Full name</t>
-        </is>
-      </c>
+          <t>Contact reference</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr"/>
+      <c r="G68" s="2" t="inlineStr"/>
       <c r="H68" s="2" t="inlineStr"/>
       <c r="I68" s="2" t="inlineStr"/>
       <c r="J68" s="2" t="inlineStr"/>
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
@@ -3895,7 +3903,7 @@
       </c>
       <c r="N68" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3919,12 +3927,12 @@
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>fullname</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Full name</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr"/>
@@ -3933,7 +3941,7 @@
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
@@ -3967,12 +3975,12 @@
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr"/>
@@ -3981,15 +3989,63 @@
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
+          <t>A phone number</t>
+        </is>
+      </c>
+      <c r="M70" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N70" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n"/>
+      <c r="B71" s="2" t="n"/>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>other-contact</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="inlineStr"/>
+      <c r="I71" s="2" t="inlineStr"/>
+      <c r="J71" s="2" t="inlineStr"/>
+      <c r="K71" s="2" t="inlineStr"/>
+      <c r="L71" s="2" t="inlineStr">
+        <is>
           <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
-      <c r="M70" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N70" s="2" t="inlineStr">
+      <c r="M71" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N71" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3997,28 +4053,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="B41"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="A41"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="B56:B64"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A57:A65"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="A42"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/hedgerow-removal-notice-hedgerow-removal-verbose.xlsx
+++ b/generated/spreadsheet/verbose/hedgerow-removal-notice-hedgerow-removal-verbose.xlsx
@@ -861,7 +861,7 @@
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>A reference for the document</t>
+          <t>Unique reference for the document within this application submission, generated by the submitting system</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/hedgerow-removal-notice-hedgerow-removal-verbose.xlsx
+++ b/generated/spreadsheet/verbose/hedgerow-removal-notice-hedgerow-removal-verbose.xlsx
@@ -2941,23 +2941,31 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>plan-references</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Plan references[]</t>
-        </is>
-      </c>
-      <c r="F47" s="2" t="inlineStr"/>
-      <c r="G47" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H47" s="2" t="inlineStr"/>
       <c r="I47" s="2" t="inlineStr"/>
       <c r="J47" s="2" t="inlineStr"/>
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>References to plans showing the stretches of hedgerows to be removed</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/hedgerow-removal-notice-hedgerow-removal-verbose.xlsx
+++ b/generated/spreadsheet/verbose/hedgerow-removal-notice-hedgerow-removal-verbose.xlsx
@@ -762,7 +762,7 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
